--- a/biology/Médecine/Kleptomanie/Kleptomanie.xlsx
+++ b/biology/Médecine/Kleptomanie/Kleptomanie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La kleptomanie, ou cleptomanie (du grec κλέπτω / kléptō, « voler », et μανία / manía, « folie »), est un trouble psychique qui se caractérise par une obsession à voler des objets, cette monomanie pouvant se porter sur des objets dont la valeur importe peu. 
 Un individu concerné par ce trouble ne peut se retenir de dérober des objets, la plupart du temps sans aucune valeur (des pièces, des couverts, des pin's, des pancartes, des goupilles d'extincteurs, des sonnettes de vélo, des petits sachets de mayonnaise, etc.). Souvent, il ne se rend compte d'avoir effectué ce vol qu'un peu après. L'individu atteint de cette maladie n'a pas nécessairement besoin de ce qu'il vole ; sa manie est dans l'acte de voler et non dans l'appropriation de biens. Voler lui provoque une excitation.
@@ -514,20 +526,162 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Peinture
-Théodore Géricault a peint vers 1820-1824 Le Kleptomane, tableau faisant partie de ses monomanes.
-Littérature
-Dans la série Artemis Fowl, un nain, Mulch Diggums, est kleptomane.
-Dans Au Bonheur des Dames d'Émile Zola, le personnage de Madame de Boves est reconnue comme étant kleptomane à la fin du roman. Zola décrit dans son œuvre les névroses nées du système des grands magasins, proposant une foule d'articles mis en scène pour provoquer le désir de posséder. Madame Marty y succombe en achetant compulsivement, Madame de Boves y succombe en volant[1].
-Bande dessinée
-Le Secret de La Licorne, album des Aventures de Tintin, Aristide Filoselle, le pickpocket, est kleptomane.
+          <t>Peinture</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Théodore Géricault a peint vers 1820-1824 Le Kleptomane, tableau faisant partie de ses monomanes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Kleptomanie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kleptomanie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Dans la culture</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Littérature</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Dans la série Artemis Fowl, un nain, Mulch Diggums, est kleptomane.
+Dans Au Bonheur des Dames d'Émile Zola, le personnage de Madame de Boves est reconnue comme étant kleptomane à la fin du roman. Zola décrit dans son œuvre les névroses nées du système des grands magasins, proposant une foule d'articles mis en scène pour provoquer le désir de posséder. Madame Marty y succombe en achetant compulsivement, Madame de Boves y succombe en volant.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Kleptomanie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kleptomanie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Dans la culture</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Bande dessinée</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Le Secret de La Licorne, album des Aventures de Tintin, Aristide Filoselle, le pickpocket, est kleptomane.
 L'Appeau d'Ephèse, album d'Achille Talon, le protagoniste principal est Toussaint Glainglin, un kleptomane surdoué que des bandits instrumentalisent pour dérober un artefact précieux à New York.
 Dans une série manga, Seven Deadly Sins, Ban, le renard de l'avarice, surnommé Ban l'immortel et un des sept péchés capitaux, est kleptomane.
-Dans la série Lucky Luke, le 88e tome a pour thème un personnage nommé Fingers, prestidigitateur de talent, galant, manipulateur et kleptomane.
-Cinéma
-Pas de printemps pour Marnie, film d'Alfred Hitchcock (1964), dont l'héroïne est kleptomane.
-Télévision et séries
-Une femme d'honneur saison 6 épisode 1, Brigitte, la petite amie du gendarme Platon est kleptomane. Elle vole inconsciemment des couverts chez les Rivière.
+Dans la série Lucky Luke, le 88e tome a pour thème un personnage nommé Fingers, prestidigitateur de talent, galant, manipulateur et kleptomane.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kleptomanie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kleptomanie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Dans la culture</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pas de printemps pour Marnie, film d'Alfred Hitchcock (1964), dont l'héroïne est kleptomane.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Kleptomanie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kleptomanie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Dans la culture</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Télévision et séries</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Une femme d'honneur saison 6 épisode 1, Brigitte, la petite amie du gendarme Platon est kleptomane. Elle vole inconsciemment des couverts chez les Rivière.
 Desperate Housewives saison 5 épisode 16, série de Marc Cherry (2004), dont Orson Hodge est kleptomane.
 Le Petit Monde de Laura Cadieux saison 2 (2005), madame Gladu est kleptomane.
 Breaking Bad, Marie Schrader, la belle-sœur de Walter White, est également kleptomane.
@@ -535,9 +689,43 @@
 Plus belle la vie, Agnès, infirmière, est kleptomane.
 Une fille vraiment bien : Lindsey, l'héroïne commence à voler, mais très vite, ne peut plus s'en empêcher ce qui la rend kleptomane.
 Trinkets, les héroïnes sont cleptomanes et se rencontrent dans un groupe de paroles pour personnes concernées.
-Dora l'Exploratrice, Chipeur le renard tient son nom du fait qu'il essaye sans arrêt de chiper les affaires de l'héroïne et de ses amis, ce qui laisse supposer qu'il est kleptomane.
-Jeux vidéo
-Dans  Thief sorti en 2014, le personnage principal, Garrett, est kleptomane.
+Dora l'Exploratrice, Chipeur le renard tient son nom du fait qu'il essaye sans arrêt de chiper les affaires de l'héroïne et de ses amis, ce qui laisse supposer qu'il est kleptomane.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Kleptomanie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Kleptomanie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Dans la culture</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Jeux vidéo</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Dans  Thief sorti en 2014, le personnage principal, Garrett, est kleptomane.
 Dans la série Mario, le personnage Carottin (Nabbit en VO) est kleptomane.</t>
         </is>
       </c>
